--- a/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_4_29.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/10/Output_4_29.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2857894.355794629</v>
+        <v>2857894.35579466</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800596</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500734</v>
+        <v>16052082.46800596</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177837</v>
+        <v>3940022.790763488</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177837</v>
+        <v>3940022.790763488</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1570864948.432647</v>
+        <v>59583988.52783319</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +679,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>396.4956611598672</v>
+        <v>396.495661159869</v>
       </c>
       <c r="H2" t="n">
         <v>347.8590406130752</v>
@@ -913,7 +913,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F5" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G5" t="n">
         <v>397.8840054528454</v>
@@ -955,7 +955,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U5" t="n">
         <v>648.751427201877</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R7" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H8" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1223,7 +1223,7 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D9" t="n">
-        <v>346.4039869401295</v>
+        <v>347.9376868977026</v>
       </c>
       <c r="E9" t="n">
         <v>342.6720972219126</v>
@@ -1238,7 +1238,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R10" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U16" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1864,10 +1864,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G17" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963208317</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U20" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V20" t="n">
         <v>629.8510241668239</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S21" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T21" t="n">
         <v>392.6911708778912</v>
@@ -2280,10 +2280,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768748</v>
       </c>
       <c r="O22" t="n">
-        <v>25.70923750768745</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963208171</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>14.39810218700126</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963202823</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T26" t="n">
         <v>560.964918411981</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767758617</v>
       </c>
       <c r="T29" t="n">
         <v>560.964918411981</v>
@@ -2860,7 +2860,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W29" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X29" t="n">
         <v>592.2818334606677</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3103,7 +3103,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y32" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883900128</v>
       </c>
     </row>
     <row r="33">
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C35" t="n">
         <v>449.4745782429939</v>
@@ -3283,7 +3283,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F35" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844152189</v>
       </c>
       <c r="G35" t="n">
         <v>397.8840054528454</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>350.6276822404644</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
         <v>408.192915058951</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
-        <v>396.4956611598672</v>
+        <v>396.4956611600525</v>
       </c>
       <c r="H38" t="n">
         <v>347.8590406130752</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
@@ -3763,7 +3763,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H41" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201635</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500136</v>
       </c>
       <c r="D44" t="n">
         <v>410.3391557398498</v>
@@ -4036,7 +4036,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T44" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U44" t="n">
         <v>648.751427201877</v>
@@ -4170,16 +4170,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
         <v>492.3327682960356</v>
@@ -4333,55 +4333,55 @@
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K2" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L2" t="n">
-        <v>2332.601309399844</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M2" t="n">
-        <v>3418.242061939566</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N2" t="n">
-        <v>3983.285125812238</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O2" t="n">
-        <v>4893.440008752982</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P2" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4497,16 +4497,16 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="L4" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>326.8726278290461</v>
       </c>
       <c r="O4" t="n">
         <v>457.4949902104935</v>
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F5" t="n">
         <v>894.2358041069906</v>
@@ -4570,55 +4570,55 @@
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>2257.013012360075</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M5" t="n">
-        <v>3445.889098227693</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N5" t="n">
-        <v>4010.932162100365</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4734,22 +4734,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>326.872627829046</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="L7" t="n">
-        <v>326.872627829046</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="M7" t="n">
-        <v>326.872627829046</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N7" t="n">
-        <v>326.872627829046</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q7" t="n">
         <v>351.2038120028187</v>
@@ -4786,22 +4786,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C8" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D8" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E8" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G8" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H8" t="n">
         <v>140.96</v>
@@ -4816,46 +4816,46 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>2354.016346177312</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M8" t="n">
-        <v>2836.195545690814</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N8" t="n">
-        <v>3401.238609563487</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O8" t="n">
-        <v>5145.618609563487</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P8" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="9">
@@ -4871,19 +4871,19 @@
         <v>1920.815456050962</v>
       </c>
       <c r="D9" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E9" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F9" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4971,22 +4971,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="N10" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="O10" t="n">
-        <v>457.4949902104934</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P10" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q10" t="n">
         <v>351.2038120028187</v>
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,52 +5047,52 @@
         <v>140.96</v>
       </c>
       <c r="J11" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K11" t="n">
-        <v>1765.421978263786</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L11" t="n">
-        <v>2936.062862426063</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M11" t="n">
-        <v>3418.242061939566</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N11" t="n">
-        <v>3983.285125812238</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O11" t="n">
-        <v>4893.440008752982</v>
+        <v>5048.615275746452</v>
       </c>
       <c r="P11" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5208,40 +5208,40 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>2257.013012360075</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>2739.192211873577</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N14" t="n">
-        <v>3304.235275746249</v>
+        <v>3379.82357278602</v>
       </c>
       <c r="O14" t="n">
-        <v>4214.390158686993</v>
+        <v>4289.978455726764</v>
       </c>
       <c r="P14" t="n">
-        <v>5912.12964013179</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q14" t="n">
-        <v>6978.643702470889</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="15">
@@ -5445,37 +5445,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
         <v>140.96</v>
@@ -5497,22 +5497,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H17" t="n">
         <v>140.96</v>
@@ -5521,52 +5521,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>821.2992300042777</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>2270.648739919985</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L17" t="n">
-        <v>3188.241463236568</v>
+        <v>2595.354589746545</v>
       </c>
       <c r="M17" t="n">
-        <v>3670.420662750071</v>
+        <v>3077.533789260047</v>
       </c>
       <c r="N17" t="n">
-        <v>4235.463726622743</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O17" t="n">
-        <v>5145.618609563487</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P17" t="n">
-        <v>5981.4859376609</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q17" t="n">
-        <v>7048</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5682,37 +5682,37 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754687</v>
       </c>
       <c r="C20" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048896</v>
       </c>
       <c r="D20" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626352078</v>
       </c>
       <c r="E20" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859072413</v>
       </c>
       <c r="F20" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361350275</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003240725</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5773,37 +5773,37 @@
         <v>3379.82357278602</v>
       </c>
       <c r="O20" t="n">
-        <v>5124.203572786019</v>
+        <v>4893.440008753723</v>
       </c>
       <c r="P20" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490198519</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>7048.000000000741</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000741</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183919</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464746</v>
       </c>
       <c r="U20" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543658</v>
       </c>
       <c r="V20" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819594</v>
       </c>
       <c r="W20" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073909546</v>
       </c>
       <c r="X20" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595666447</v>
       </c>
       <c r="Y20" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340431289</v>
       </c>
     </row>
     <row r="21">
@@ -5861,7 +5861,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S21" t="n">
         <v>5159.222422432123</v>
@@ -5919,7 +5919,7 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
         <v>275.6639043471516</v>
@@ -5928,7 +5928,7 @@
         <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>166.9289267754419</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754687</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048896</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626352078</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859072413</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361350275</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003240725</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756669</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043506</v>
       </c>
       <c r="L23" t="n">
-        <v>2332.601309399844</v>
+        <v>2963.709898714757</v>
       </c>
       <c r="M23" t="n">
-        <v>2814.780508913348</v>
+        <v>3445.88909822826</v>
       </c>
       <c r="N23" t="n">
-        <v>3379.82357278602</v>
+        <v>4010.932162100932</v>
       </c>
       <c r="O23" t="n">
-        <v>5124.203572786019</v>
+        <v>5755.312162101106</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.179490198519</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048</v>
+        <v>7048.000000000741</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000741</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183919</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464746</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543658</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819594</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073909546</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595666447</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340431289</v>
       </c>
     </row>
     <row r="24">
@@ -6050,76 +6050,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235918</v>
       </c>
       <c r="C24" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927313</v>
       </c>
       <c r="D24" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939735</v>
       </c>
       <c r="E24" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402449</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7120959500332</v>
+        <v>881.712095950048</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448555</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876547027</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149365</v>
       </c>
       <c r="K24" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213093</v>
       </c>
       <c r="L24" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374331</v>
       </c>
       <c r="M24" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117191</v>
       </c>
       <c r="N24" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215325</v>
       </c>
       <c r="O24" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182063</v>
       </c>
       <c r="P24" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368551</v>
       </c>
       <c r="Q24" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249731</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.53849824926</v>
       </c>
       <c r="S24" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432137</v>
       </c>
       <c r="T24" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070631</v>
       </c>
       <c r="U24" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043188</v>
       </c>
       <c r="V24" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.82297541539</v>
       </c>
       <c r="W24" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021624</v>
       </c>
       <c r="X24" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.97864980406</v>
       </c>
       <c r="Y24" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545339</v>
       </c>
     </row>
     <row r="25">
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="C25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="D25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="E25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="F25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="G25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967284</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="U25" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893345</v>
       </c>
       <c r="V25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="W25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="X25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
       <c r="Y25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000148</v>
       </c>
     </row>
     <row r="26">
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546319</v>
       </c>
       <c r="C26" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048345</v>
       </c>
       <c r="D26" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351527</v>
       </c>
       <c r="E26" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071862</v>
       </c>
       <c r="F26" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361344763</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003235213</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>599.777145475656</v>
       </c>
       <c r="K26" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043495</v>
       </c>
       <c r="L26" t="n">
-        <v>3159.388586083262</v>
+        <v>2712.238227509737</v>
       </c>
       <c r="M26" t="n">
-        <v>3641.567785596765</v>
+        <v>3194.41742702324</v>
       </c>
       <c r="N26" t="n">
-        <v>4206.610849469437</v>
+        <v>4845.157279159812</v>
       </c>
       <c r="O26" t="n">
-        <v>5755.312162100365</v>
+        <v>5755.312162100556</v>
       </c>
       <c r="P26" t="n">
-        <v>6591.179490197778</v>
+        <v>6591.179490197969</v>
       </c>
       <c r="Q26" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="S26" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183368</v>
       </c>
       <c r="T26" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464196</v>
       </c>
       <c r="U26" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543107</v>
       </c>
       <c r="V26" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819043</v>
       </c>
       <c r="W26" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908994</v>
       </c>
       <c r="X26" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665896</v>
       </c>
       <c r="Y26" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430738</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R27" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="T28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518837</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020864</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324045</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.21522704438</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069944</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960394</v>
       </c>
       <c r="H29" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154225</v>
+        <v>599.777145475656</v>
       </c>
       <c r="K29" t="n">
-        <v>1436.423622860729</v>
+        <v>1339.420289043495</v>
       </c>
       <c r="L29" t="n">
-        <v>2354.016346177312</v>
+        <v>2257.013012360078</v>
       </c>
       <c r="M29" t="n">
-        <v>2836.195545690814</v>
+        <v>3553.537024987259</v>
       </c>
       <c r="N29" t="n">
-        <v>3401.238609563487</v>
+        <v>4118.580088859931</v>
       </c>
       <c r="O29" t="n">
-        <v>5145.618609563487</v>
+        <v>5028.734971800674</v>
       </c>
       <c r="P29" t="n">
-        <v>5981.4859376609</v>
+        <v>5864.602299898088</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048</v>
+        <v>6931.116362237188</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155886</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.115762436713</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515626</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791561</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.776441881513</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638414</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403256</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I30" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="V31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="W31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518837</v>
       </c>
       <c r="C32" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020864</v>
       </c>
       <c r="D32" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324045</v>
       </c>
       <c r="E32" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.21522704438</v>
       </c>
       <c r="F32" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069944</v>
       </c>
       <c r="G32" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960394</v>
       </c>
       <c r="H32" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I32" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154225</v>
+        <v>599.777145475656</v>
       </c>
       <c r="K32" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043495</v>
       </c>
       <c r="L32" t="n">
-        <v>3159.388586083262</v>
+        <v>2257.013012360078</v>
       </c>
       <c r="M32" t="n">
-        <v>3641.567785596765</v>
+        <v>2739.192211873581</v>
       </c>
       <c r="N32" t="n">
-        <v>4206.610849469437</v>
+        <v>4389.932064010153</v>
       </c>
       <c r="O32" t="n">
-        <v>5116.765732410181</v>
+        <v>5300.086946950897</v>
       </c>
       <c r="P32" t="n">
-        <v>5952.633060507595</v>
+        <v>6135.954275048311</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183368</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464196</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922543107</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766819043</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908994</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665896</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403256</v>
       </c>
     </row>
     <row r="33">
@@ -6761,76 +6761,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D33" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E33" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I33" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K33" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L33" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N33" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O33" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P33" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q33" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S33" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T33" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U33" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X33" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="V34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="W34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546319</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048345</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351527</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071862</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069944</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960394</v>
       </c>
       <c r="H35" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I35" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>599.777145475656</v>
       </c>
       <c r="K35" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043495</v>
       </c>
       <c r="L35" t="n">
-        <v>2758.60299862014</v>
+        <v>2257.013012360078</v>
       </c>
       <c r="M35" t="n">
-        <v>3240.782198133642</v>
+        <v>2739.192211873581</v>
       </c>
       <c r="N35" t="n">
-        <v>3805.825262006314</v>
+        <v>3373.591573275551</v>
       </c>
       <c r="O35" t="n">
-        <v>4893.440008752982</v>
+        <v>4283.746456216295</v>
       </c>
       <c r="P35" t="n">
-        <v>6591.179490197778</v>
+        <v>5981.485937661091</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183368</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464196</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543107</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819043</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908994</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665896</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430738</v>
       </c>
     </row>
     <row r="36">
@@ -6998,76 +6998,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3409.404159986189</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C36" t="n">
-        <v>3044.656773677584</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D36" t="n">
-        <v>2693.204564690005</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E36" t="n">
-        <v>2347.07113315272</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F36" t="n">
-        <v>2004.004221700319</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G36" t="n">
-        <v>1678.148658495126</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H36" t="n">
-        <v>1373.282113404973</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I36" t="n">
-        <v>1263.252125750286</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J36" t="n">
-        <v>1681.139655265207</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K36" t="n">
-        <v>2372.707382963364</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L36" t="n">
-        <v>3319.562910124602</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M36" t="n">
-        <v>4193.926001867461</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N36" t="n">
-        <v>5136.352329965595</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O36" t="n">
-        <v>6115.605331932333</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P36" t="n">
-        <v>6822.21890111882</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q36" t="n">
-        <v>7048</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R36" t="n">
-        <v>6693.830623999531</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S36" t="n">
-        <v>6281.514548182408</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T36" t="n">
-        <v>5884.856799820902</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U36" t="n">
-        <v>5480.812744793459</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V36" t="n">
-        <v>5062.115101165661</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W36" t="n">
-        <v>4625.374552771895</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X36" t="n">
-        <v>4201.270775554332</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y36" t="n">
-        <v>3797.84512629561</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="W37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546319</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048345</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351527</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071862</v>
       </c>
       <c r="F38" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361344763</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960394</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397742</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154264</v>
       </c>
       <c r="K38" t="n">
-        <v>1415.008586083262</v>
+        <v>1415.008586083265</v>
       </c>
       <c r="L38" t="n">
-        <v>2332.601309399844</v>
+        <v>2332.601309399848</v>
       </c>
       <c r="M38" t="n">
-        <v>3864.448844008177</v>
+        <v>2814.780508913351</v>
       </c>
       <c r="N38" t="n">
-        <v>4429.491907880849</v>
+        <v>3983.285125812429</v>
       </c>
       <c r="O38" t="n">
-        <v>5638.428524337362</v>
+        <v>4893.440008753173</v>
       </c>
       <c r="P38" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197969</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000191</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183368</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464196</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543107</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819043</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908994</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665896</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430738</v>
       </c>
     </row>
     <row r="39">
@@ -7235,76 +7235,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D39" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E39" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K39" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L39" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N39" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O39" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P39" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q39" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S39" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T39" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U39" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X39" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266959</v>
       </c>
       <c r="U40" t="n">
-        <v>155.5035375626275</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546199</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048225</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351407</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071742</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361343562</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003234013</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I41" t="n">
-        <v>140.96</v>
+        <v>216.5482970397742</v>
       </c>
       <c r="J41" t="n">
-        <v>1025.778834695947</v>
+        <v>675.3654425154264</v>
       </c>
       <c r="K41" t="n">
-        <v>1765.421978263786</v>
+        <v>1415.008586083265</v>
       </c>
       <c r="L41" t="n">
-        <v>2683.01470158037</v>
+        <v>2332.601309399848</v>
       </c>
       <c r="M41" t="n">
-        <v>4214.862236188701</v>
+        <v>3864.44884400818</v>
       </c>
       <c r="N41" t="n">
-        <v>4779.905300061373</v>
+        <v>4845.157279159692</v>
       </c>
       <c r="O41" t="n">
-        <v>5690.060183002117</v>
+        <v>5755.312162100436</v>
       </c>
       <c r="P41" t="n">
-        <v>6525.92751109953</v>
+        <v>6591.179490197849</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048</v>
+        <v>7048.000000000071</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000071</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183248</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464075</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542987</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818922</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908874</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665775</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430618</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R42" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Q43" t="n">
-        <v>293.2980670266921</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="R43" t="n">
-        <v>293.2980670266921</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="S43" t="n">
-        <v>293.2980670266921</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="T43" t="n">
-        <v>293.2980670266921</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="U43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="V43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
     <row r="44">
@@ -7630,76 +7630,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.146990020864</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324045</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.21522704438</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069944</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960394</v>
       </c>
       <c r="H44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>599.777145475656</v>
       </c>
       <c r="K44" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043495</v>
       </c>
       <c r="L44" t="n">
-        <v>2332.601309399844</v>
+        <v>3083.800289043542</v>
       </c>
       <c r="M44" t="n">
-        <v>2814.780508913348</v>
+        <v>3565.979488557045</v>
       </c>
       <c r="N44" t="n">
-        <v>3379.82357278602</v>
+        <v>4235.463726622745</v>
       </c>
       <c r="O44" t="n">
-        <v>4776.556370989979</v>
+        <v>5145.618609563488</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937660902</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T44" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235907</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927302</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939724</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402438</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500371</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448446</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546917</v>
       </c>
       <c r="I45" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149254</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213082</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374321</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.63387611718</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.060204215314</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182052</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.92677536854</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.70787424972</v>
       </c>
       <c r="R45" t="n">
-        <v>5571.538498249245</v>
+        <v>5571.538498249249</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432126</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.56467407062</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043177</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415379</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021613</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804049</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545328</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="I46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967174</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893234</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471554</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754457</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754457</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="V46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000038</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>609.5571242689076</v>
+        <v>29.51871305977602</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>713.8352387415304</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>645.1956588512442</v>
       </c>
       <c r="O5" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8464,22 +8464,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>97.98316547195691</v>
+        <v>459.8234496459327</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O8" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>176.4768357656695</v>
@@ -8695,13 +8695,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>255.6042028744384</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>842.651633393393</v>
       </c>
       <c r="P11" t="n">
-        <v>870.5779326741233</v>
+        <v>713.8352387413272</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8950,13 +8950,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>870.5779326741233</v>
+        <v>746.2187031047688</v>
       </c>
       <c r="Q14" t="n">
         <v>615.8520732695737</v>
       </c>
       <c r="R14" t="n">
-        <v>246.5337019566904</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>147.4078661503587</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>265.4073538855553</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9421,13 +9421,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>842.6516333931879</v>
+        <v>609.5571242696562</v>
       </c>
       <c r="P20" t="n">
-        <v>21.63135028026977</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q20" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>713.8352387420891</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>842.6516333931879</v>
+        <v>842.6516333933639</v>
       </c>
       <c r="P23" t="n">
-        <v>637.4834235498436</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -9886,16 +9886,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>835.138663316583</v>
+        <v>459.82344964612</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O26" t="n">
-        <v>644.9963936264483</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>21.63135028026988</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>822.5705182966439</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10141,7 +10141,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -10360,13 +10360,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10375,10 +10375,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>526.9321130577583</v>
+        <v>459.8234496461201</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,16 +10603,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>70.05686619121002</v>
       </c>
       <c r="O35" t="n">
-        <v>179.2523876827513</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R35" t="n">
         <v>176.4768357656695</v>
@@ -10837,22 +10837,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>609.5571242690974</v>
       </c>
       <c r="O38" t="n">
-        <v>301.7997308240087</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>419.8640113927673</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.9110899982303</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>176.4768357656695</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -11308,25 +11308,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>835.1386633166303</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>105.4961355485126</v>
       </c>
       <c r="O44" t="n">
-        <v>491.4928437002175</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23278,10 +23278,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T16" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V16" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
         <v>226.3728098387097</v>
@@ -23752,10 +23752,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V19" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W19" t="n">
         <v>226.3728098387097</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.38834429224346</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S21" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
-        <v>242.3489823090323</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292258125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V25" t="n">
-        <v>184.7722080292149</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W25" t="n">
         <v>226.3728098387097</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.388344292792851</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
         <v>150.8146863564251</v>
@@ -24669,7 +24669,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528329</v>
       </c>
       <c r="X28" t="n">
         <v>247.4436454301076</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.388344292792794</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V31" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
         <v>226.3728098387097</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24991,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.38834429279359</v>
       </c>
     </row>
     <row r="33">
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.388344292792851</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>1.533699957575209</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692969</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25380,7 +25380,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292792794</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25651,7 +25651,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.388344292911711</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P43" t="n">
-        <v>368.8061924102448</v>
+        <v>203.5934038668184</v>
       </c>
       <c r="Q43" t="n">
-        <v>490.8301642385968</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R43" t="n">
         <v>608.1413738827905</v>
@@ -25848,7 +25848,7 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
         <v>199.1703102162162</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.388344292980207</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26058,16 +26058,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O46" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P46" t="n">
         <v>368.8061924102448</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15954.38442270377</v>
+        <v>1316006.940470103</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>31731.20170604742</v>
+        <v>2606868.406811011</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47508.01898939107</v>
+        <v>3897729.873151923</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65464.68190845995</v>
+        <v>5053973.894141733</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83421.34482752881</v>
+        <v>6210217.915131542</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>101378.0077465977</v>
+        <v>7366461.936121344</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>119334.6706656666</v>
+        <v>8522705.95711121</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>137291.3335847355</v>
+        <v>9678949.978101069</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>155247.9965038043</v>
+        <v>10835193.99909088</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>173204.6594228732</v>
+        <v>11991438.02008069</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>191161.3223419421</v>
+        <v>13147682.04107051</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>209117.9852610109</v>
+        <v>14303926.06206033</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>227074.6481800799</v>
+        <v>15460170.08305017</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>245031.311099149</v>
+        <v>16616414.10403999</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>262987.9740182181</v>
+        <v>17772658.12502981</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>913048.3542411316</v>
+        <v>913048.3542411313</v>
       </c>
       <c r="C2" t="n">
         <v>913048.3542411315</v>
@@ -26328,40 +26328,40 @@
         <v>913048.3542411313</v>
       </c>
       <c r="E2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.136797669</v>
       </c>
       <c r="F2" t="n">
-        <v>817831.1367976691</v>
+        <v>817831.1367976692</v>
       </c>
       <c r="G2" t="n">
-        <v>817831.1367976689</v>
+        <v>817831.136797669</v>
       </c>
       <c r="H2" t="n">
-        <v>817831.136797669</v>
+        <v>817831.1367977115</v>
       </c>
       <c r="I2" t="n">
+        <v>817831.1367977106</v>
+      </c>
+      <c r="J2" t="n">
+        <v>817831.1367976797</v>
+      </c>
+      <c r="K2" t="n">
+        <v>817831.1367976797</v>
+      </c>
+      <c r="L2" t="n">
+        <v>817831.1367976797</v>
+      </c>
+      <c r="M2" t="n">
+        <v>817831.1367976799</v>
+      </c>
+      <c r="N2" t="n">
+        <v>817831.1367976798</v>
+      </c>
+      <c r="O2" t="n">
+        <v>817831.1367976728</v>
+      </c>
+      <c r="P2" t="n">
         <v>817831.1367976688</v>
-      </c>
-      <c r="J2" t="n">
-        <v>817831.1367976688</v>
-      </c>
-      <c r="K2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="L2" t="n">
-        <v>817831.136797669</v>
-      </c>
-      <c r="M2" t="n">
-        <v>817831.1367976689</v>
-      </c>
-      <c r="N2" t="n">
-        <v>817831.1367976691</v>
-      </c>
-      <c r="O2" t="n">
-        <v>817831.1367976691</v>
-      </c>
-      <c r="P2" t="n">
-        <v>817831.1367976686</v>
       </c>
     </row>
     <row r="3">
@@ -26392,10 +26392,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.506888894364238e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620223.9999999517</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,49 +26423,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101648.5408862317</v>
+        <v>101648.5408862316</v>
       </c>
       <c r="C4" t="n">
-        <v>101346.5898317505</v>
+        <v>101346.5898317504</v>
       </c>
       <c r="D4" t="n">
-        <v>101044.2291618175</v>
+        <v>101044.2291618174</v>
       </c>
       <c r="E4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309948</v>
       </c>
       <c r="F4" t="n">
+        <v>26356.19966309947</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26356.19966309948</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26356.19966310551</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26356.1996631054</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26356.19966310099</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26356.19966310099</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26356.19966310099</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26356.19966310098</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26356.19966310099</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26356.19966310001</v>
+      </c>
+      <c r="P4" t="n">
         <v>26356.19966309945</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="H4" t="n">
-        <v>26356.19966309946</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26356.19966309946</v>
-      </c>
-      <c r="K4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26356.19966309946</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="N4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26356.19966309947</v>
-      </c>
-      <c r="P4" t="n">
-        <v>26356.19966309946</v>
       </c>
     </row>
     <row r="5">
@@ -26496,28 +26496,28 @@
         <v>138979.4</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000113</v>
       </c>
       <c r="J5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
       <c r="K5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
       <c r="L5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000029</v>
       </c>
     </row>
     <row r="6">
@@ -26536,40 +26536,40 @@
         <v>639397.1250793139</v>
       </c>
       <c r="E6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345695</v>
       </c>
       <c r="F6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371345697</v>
       </c>
       <c r="G6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345695</v>
       </c>
       <c r="H6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371346059</v>
       </c>
       <c r="I6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345289</v>
       </c>
       <c r="J6" t="n">
-        <v>32271.53713456931</v>
+        <v>32271.53713462412</v>
       </c>
       <c r="K6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345758</v>
       </c>
       <c r="L6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371345758</v>
       </c>
       <c r="M6" t="n">
-        <v>652495.5371345694</v>
+        <v>652495.5371345761</v>
       </c>
       <c r="N6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.5371345759</v>
       </c>
       <c r="O6" t="n">
-        <v>652495.5371345696</v>
+        <v>652495.53713457</v>
       </c>
       <c r="P6" t="n">
-        <v>652495.5371345691</v>
+        <v>652495.5371345663</v>
       </c>
     </row>
   </sheetData>
@@ -26940,28 +26940,28 @@
         <v>1762</v>
       </c>
       <c r="I4" t="n">
-        <v>1762</v>
+        <v>1762.000000000185</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="K4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="L4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="M4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="N4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="O4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="P4" t="n">
-        <v>1762</v>
+        <v>1762.000000000048</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,28 +27144,28 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.777525254080749e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1761.99999999987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388344292978218</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27693,10 +27693,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.22325579770344</v>
       </c>
       <c r="L4" t="n">
-        <v>183.02095922073</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M4" t="n">
         <v>107.6476277959926</v>
@@ -27705,7 +27705,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>400</v>
       </c>
       <c r="P4" t="n">
         <v>368.8061924102448</v>
@@ -27757,7 +27757,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27799,7 +27799,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>19.22325579770344</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>268.0582198167198</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28000,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.533699957573049</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,7 +28173,7 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>258.8126637769763</v>
+        <v>227.6188561872211</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
@@ -28182,7 +28182,7 @@
         <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -34825,28 +34825,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L2" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M2" t="n">
-        <v>1096.606820747193</v>
+        <v>516.5684095380616</v>
       </c>
       <c r="N2" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O2" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
         <v>461.4348583860824</v>
@@ -34989,10 +34989,10 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K4" t="n">
-        <v>17.57070160869296</v>
+        <v>36.7939574063964</v>
       </c>
       <c r="L4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -35001,7 +35001,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9417801832802</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35062,25 +35062,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M5" t="n">
-        <v>1200.884935219816</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
-        <v>570.7505695683558</v>
+        <v>1215.9462284196</v>
       </c>
       <c r="O5" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>36.7939574063964</v>
+        <v>137.5419299999215</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35308,22 +35308,22 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>1024.844502155374</v>
+        <v>1386.68478632935</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N8" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O8" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35469,7 +35469,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>151.1650359809836</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35478,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35539,13 +35539,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L11" t="n">
-        <v>1182.465539557856</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35554,10 +35554,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>919.3483666068121</v>
+        <v>1762.000000000205</v>
       </c>
       <c r="P11" t="n">
-        <v>1714.888365095753</v>
+        <v>1558.145671162957</v>
       </c>
       <c r="Q11" t="n">
         <v>461.4348583860824</v>
@@ -35773,16 +35773,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -35794,13 +35794,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>1714.888365095753</v>
+        <v>1590.529135526399</v>
       </c>
       <c r="Q14" t="n">
         <v>1077.286931655656</v>
       </c>
       <c r="R14" t="n">
-        <v>70.05686619102084</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -36013,19 +36013,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>610.859528246977</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>1192.268690568972</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
@@ -36034,10 +36034,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36265,13 +36265,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
-        <v>1762</v>
+        <v>1528.905490876468</v>
       </c>
       <c r="P20" t="n">
-        <v>865.9417827018998</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q20" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36484,7 +36484,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
@@ -36493,7 +36493,7 @@
         <v>747.114286432161</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1640.696575425506</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1762</v>
+        <v>1762.000000000176</v>
       </c>
       <c r="P23" t="n">
-        <v>1481.793855971474</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36721,25 +36721,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L26" t="n">
-        <v>1762</v>
+        <v>1386.684786329537</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O26" t="n">
-        <v>1564.34476023326</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
@@ -36958,25 +36958,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>768.7456367124307</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L29" t="n">
         <v>926.8613366834172</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1309.62021477493</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
         <v>844.3104324216301</v>
@@ -36985,7 +36985,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37195,22 +37195,22 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L32" t="n">
-        <v>1762</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
@@ -37219,10 +37219,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q32" t="n">
-        <v>988.3669714438406</v>
+        <v>921.2583080322024</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,31 +37432,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L35" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>640.8074357595657</v>
       </c>
       <c r="O35" t="n">
-        <v>1098.600754289563</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
         <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37675,28 +37675,28 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L38" t="n">
         <v>926.861336683417</v>
       </c>
       <c r="M38" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
-        <v>570.7505695683558</v>
+        <v>1180.307693837453</v>
       </c>
       <c r="O38" t="n">
-        <v>1221.148097430821</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P38" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q38" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,22 +37906,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
         <v>1547.320742028618</v>
       </c>
       <c r="N41" t="n">
-        <v>570.7505695683558</v>
+        <v>990.614580961123</v>
       </c>
       <c r="O41" t="n">
         <v>919.3483666068121</v>
@@ -37930,7 +37930,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>527.3459483843127</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38143,34 +38143,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>1762.000000000048</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>676.2467051168683</v>
       </c>
       <c r="O44" t="n">
-        <v>1410.84121030703</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q44" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
